--- a/frontend-cemos/public/assets/content/planejamento/3-md-30-m-01/script/fc4.xlsx
+++ b/frontend-cemos/public/assets/content/planejamento/3-md-30-m-01/script/fc4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,504 +468,420 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>71</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Quem é o responsável pela elaboração do Apêndice Estratégico de Mobilização Militar (AEMM)?</t>
+          <t>De quem é a competência para determinar a estrutura a ser adotada pelo Comando Operacional?</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>A Subchefia de Mobilização (SUBMOB) da Chefia de Logística e Mobilização do EMCFA, conforme o item 4.1.1.</t>
+          <t>Do Comandante Operacional, que possui total flexibilidade para adaptá-la à situação, conforme o item 4.1.2.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Pág. 31</t>
+          <t>Pág. 45</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Cap. 4 - Apêndice Estratégico de Mobilização Militar</t>
+          <t>Cap. IV - Comando Operacional Conjunto</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>71</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>O que o AEMM lista especificamente em relação à Logística?</t>
+          <t>O que define uma "Força-Tarefa" no contexto da estrutura operacional?</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Lista as carências logísticas das Forças Singulares e especifica ações de Mobilização para atendê-las, conforme o item 4.1.2.</t>
+          <t>Força com comando próprio, missão específica e duração limitada no tempo, constituída de meios adjudicados ou do próprio Comando, conforme o item 4.1.3.3.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Pág. 31</t>
+          <t>Pág. 45</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Cap. 4 - Apêndice Estratégico de Mobilização Militar</t>
+          <t>Cap. IV - Comando Operacional Conjunto</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>71</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Qual é a finalidade principal descrita no corpo do plano do AEMM?</t>
+          <t>Qual a principal característica da organização por Forças Componentes Singulares?</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Especificar ações complementares à Logística e listar carências das FS referentes ao PEECFA não atendidas pelas Forças, conforme o item 4.3.1.</t>
+          <t>Apresenta homogeneidade de relacionamento simples e permite conhecimento profundo dos meios pelo comandante, conforme o item 4.1.4.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Pág. 31</t>
+          <t>Pág. 45</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Cap. 4 - Apêndice Estratégico de Mobilização Militar</t>
+          <t>Cap. IV - Comando Operacional Conjunto</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>71</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Onde estarão listadas as carências logísticas da Força Singular dentro do documento AEMM?</t>
+          <t>Por que a organização por Forças Conjuntas Componentes deve ser priorizada?</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Em um adendo específico ao qual se fará referência no item 4.3.3, conforme o item 4.3.3.1.</t>
+          <t>Pois proporciona maior flexibilidade, distribuição balanceada de meios e aumenta a sinergia de emprego, conforme o item 4.1.5.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Pág. 32</t>
+          <t>Pág. 46</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Cap. 4 - Apêndice Estratégico de Mobilização Militar</t>
+          <t>Cap. IV - Comando Operacional Conjunto</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>71</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Qual ação relativa à Base Industrial de Defesa é proposta na fase de Preparo da Mobilização?</t>
+          <t>Quais fatores o Comandante Operacional deve considerar ao definir a estrutura de força?</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Propor a colocação de encomendas educativas nas empresas da BID, prioritariamente nas EED e ED, conforme o item 4.3.4.1, alínea "c".</t>
+          <t>Vantagens das forças, características da área, natureza das ações e possibilidades de apoio mútuo e logístico, conforme o item 4.1.6.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Pág. 32</t>
+          <t>Pág. 46</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Cap. 4 - Apêndice Estratégico de Mobilização Militar</t>
+          <t>Cap. IV - Comando Operacional Conjunto</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>71</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>O que o MD e as FS devem fazer com seus sistemas informatizados na fase de preparo?</t>
+          <t>Como deve ser empregado cada meio adjudicado para resguardar os princípios da simplicidade?</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Cadastrar, atualizar e aperfeiçoar os sistemas que gerenciam recursos e integrá-los aos sistemas do MD, conforme o item 4.3.4.1, alínea "e".</t>
+          <t>De acordo com o seu tipo de preparo, englobando aspectos doutrinários, de adestramento e de equipamento, conforme o item 4.1.8.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Pág. 32</t>
+          <t>Pág. 46</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Cap. 4 - Apêndice Estratégico de Mobilização Militar</t>
+          <t>Cap. IV - Comando Operacional Conjunto</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>71</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Qual é o objetivo de criar e manter um Banco de Talentos (BT) na fase de preparo?</t>
+          <t>A quem ficam subordinados os Comandos Operacionais Conjuntos quando ativados?</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Viabilizar possíveis convocações abrigadas pela Lei do Serviço Militar ou por Decreto de Mobilização, conforme o item 4.3.4.1, alínea "f".</t>
+          <t>Ao Comandante Supremo (CS), por intermédio do Ministro da Defesa, conforme o item 4.2.2.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Pág. 33</t>
+          <t>Pág. 47</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Cap. 4 - Apêndice Estratégico de Mobilização Militar</t>
+          <t>Cap. IV - Comando Operacional Conjunto</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>71</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>O que deve ser feito em relação às indústrias relevantes para a mobilização que não constem no Sistema APOLO?</t>
+          <t>O que significa "Liberdade de Ação" como aspecto a ser observado pelo Comando Operacional?</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Devem ser cadastradas, conforme o item 4.3.4.1, alínea "h".</t>
+          <t>É a capacidade de agir de maneira descentralizada e específica, mantendo as características de cada Força Componente, conforme o item 4.2.3, alínea 'b'.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Pág. 33</t>
+          <t>Pág. 47</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Cap. 4 - Apêndice Estratégico de Mobilização Militar</t>
+          <t>Cap. IV - Comando Operacional Conjunto</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>71</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Que ações relativas a Recursos Humanos são executadas a partir da decretação da Mobilização Nacional?</t>
+          <t>Como é definido o aspecto da "Coordenação" no Comando Operacional Conjunto?</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Mobilizar, convocar, treinar, incorporar e dar destino aos recursos humanos, conforme o item 4.3.5, alínea "c".</t>
+          <t>Ação que visa ao entrosamento de setores para promover sinergia, evitando duplicidade e interferência mútua, conforme o item 4.2.3, alínea 'a'.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Pág. 33</t>
+          <t>Pág. 47</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Cap. 4 - Apêndice Estratégico de Mobilização Militar</t>
+          <t>Cap. IV - Comando Operacional Conjunto</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>71</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>O que pode ser proposto em relação a empresas com capacidade de atender carências durante a execução da mobilização?</t>
+          <t>Qual é a função primordial do Comandante no Nível Operacional?</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Propor eventual intervenção em empresas, conforme o item 4.3.5, alínea "d".</t>
+          <t>Sincronizar ações de forças de naturezas diversas para alcançar objetivos operacionais em harmonia com outras expressões do Poder Nacional, conforme o item 4.3.2.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Pág. 34</t>
+          <t>Pág. 48</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Cap. 4 - Apêndice Estratégico de Mobilização Militar</t>
+          <t>Cap. IV - Comando Operacional Conjunto</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>71</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Quando devem ser previstas as Ações de Desmobilização?</t>
+          <t>O Comandante Operacional deve comandar diretamente os meios militares?</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Para a retomada da situação de normalidade quando cessarem os motivos que determinaram a Mobilização, conforme o item 4.3.6.</t>
+          <t>A princípio não, salvo em situações temporárias e excepcionais que representem vantagens operacionais significativas, conforme o item 4.3.4.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Pág. 34</t>
+          <t>Pág. 48</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Cap. 4 - Apêndice Estratégico de Mobilização Militar</t>
+          <t>Cap. IV - Comando Operacional Conjunto</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>71</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Que medida social é planejada na fase de Preparo da Desmobilização em relação à força de trabalho?</t>
+          <t>Quem tem a atribuição de estabelecer e disseminar as Regras de Engajamento no Nível Operacional?</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Propor medidas de assistência à mão de obra desincorporada, readaptação de veteranos e reintegração ao trabalho, conforme o item 4.3.6, alínea "e".</t>
+          <t>O Comandante Operacional, conforme o item 4.3.5, alínea 'd'.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Pág. 34</t>
+          <t>Pág. 48</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Cap. 4 - Apêndice Estratégico de Mobilização Militar</t>
+          <t>Cap. IV - Comando Operacional Conjunto</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>71</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>De que maneira as atividades da fase de Execução da Desmobilização devem ser postas em prática?</t>
+          <t>Quem gerencia todo o fluxo de apoio logístico no TO ou A Op, priorizando a logística conjunta?</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>De forma ordenada e gradativa, a fim de fazer face a um possível recrudescimento das ações do oponente, conforme o item 4.3.7.</t>
+          <t>O Comandante Logístico Componente (C Log Cte), conforme o item 4.5.1, alínea 'b'.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Pág. 35</t>
+          <t>Pág. 49</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Cap. 4 - Apêndice Estratégico de Mobilização Militar</t>
+          <t>Cap. IV - Comando Operacional Conjunto</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>71</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>O que deve ser proposto em relação aos contratos de produção durante a desmobilização?</t>
+          <t>Com qual órgão o C Log Cte coordena o fluxo logístico entre a Zona do Interior e o Teatro de Operações?</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>O cancelamento oportuno dos contratos de produção de artigos destinados às necessidades de mobilização, conforme o item 4.3.7, alínea "h".</t>
+          <t>Com o Centro de Coordenação de Logística e Mobilização (CCLM) do EMCFA, conforme o item 4.5.1, alínea 'c'.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Pág. 35</t>
+          <t>Pág. 49</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Cap. 4 - Apêndice Estratégico de Mobilização Militar</t>
+          <t>Cap. IV - Comando Operacional Conjunto</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>71</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Quem coordena as ações de Mobilização/Desmobilização com as Forças Singulares?</t>
+          <t>O que compõe a Lista de Necessidades Final (LNF) apresentada pelo C Log Cte?</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>A Célula de Coordenação de Mobilização (CeCM) do Centro de Coordenação de Logística e Mobilização (CCLM), conforme o item 4.3.8.2.</t>
+          <t>A consolidação das Listas de Necessidades dos três níveis de planejamento (LNI, LNC e LNS), conforme o item 4.5.1, alínea 'e'.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Pág. 35</t>
+          <t>Pág. 49</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Cap. 4 - Apêndice Estratégico de Mobilização Militar</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Qual é o critério temporal para que uma demanda não seja considerada carência de mobilização, mas sim planejamento logístico?</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Demandas identificadas que podem ser atendidas no prazo de até 3 (três) anos, conforme o item 4.3.8.3.</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Pág. 36</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Cap. 4 - Apêndice Estratégico de Mobilização Militar</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Que informação financeira deve obrigatoriamente constar no corpo do AEMM?</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>O custo estimado total das carências, conforme o item 4.3.8.5.</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Pág. 36</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Cap. 4 - Apêndice Estratégico de Mobilização Militar</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Após ser assinado pelo Subchefe de Mobilização, para onde o AEMM é enviado?</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Para a Chefia de Operações Conjuntas, a fim de ser anexado ao PEECFA, conforme o item 4.3.11.</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Pág. 36</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Cap. 4 - Apêndice Estratégico de Mobilização Militar</t>
+          <t>Cap. IV - Comando Operacional Conjunto</t>
         </is>
       </c>
     </row>
